--- a/表3.xlsx
+++ b/表3.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21570" windowHeight="11850"/>
+    <workbookView windowWidth="11265" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5151,38 +5149,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>